--- a/1matrices.xlsx
+++ b/1matrices.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SamplesDetail" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConfusionMatrix" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correlation" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ramja positive with symptoms" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,157 +451,105 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Total Samples</t>
+          <t>Total common samples</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C2" t="n">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Blank Results</t>
+          <t>Positive</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Non-Blank Results</t>
+          <t>Negative</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="C4" t="n">
-        <v>114</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Contaminated Samples [-Ve]</t>
+          <t>Common Positive</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Others [+Ve]</t>
+          <t>Concordance [Common bacteria]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Common samples</t>
+          <t>Common Negative</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="C7" t="n">
-        <v>112</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Positive</t>
+          <t>RAMJA Positive and AIIMS Negative</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Negative</t>
+          <t>RAMJA Negative and AIIMS Positive</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Common Positive</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>37</v>
-      </c>
-      <c r="C10" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Concordance [Common bacteria]</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>25</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Common Negative</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>45</v>
-      </c>
-      <c r="C12" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>RAMJA Positive and AIIMS Negative</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>27</v>
-      </c>
-      <c r="C13" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -694,7 +642,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7321428571428571</v>
+        <v>0.7586206896551724</v>
       </c>
     </row>
     <row r="3">
@@ -704,7 +652,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.925</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="4">
@@ -714,7 +662,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.625</v>
+        <v>0.8723404255319149</v>
       </c>
     </row>
     <row r="5">
@@ -724,7 +672,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.578125</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="6">
@@ -734,7 +682,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.925</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="7">
@@ -744,7 +692,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7115384615384616</v>
+        <v>0.7042253521126761</v>
       </c>
     </row>
     <row r="8">
@@ -754,7 +702,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.578125</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="9">
@@ -764,7 +712,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9375</v>
+        <v>0.7321428571428571</v>
       </c>
     </row>
     <row r="10">
@@ -774,7 +722,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.466666666666667</v>
+        <v>4.895833333333335</v>
       </c>
     </row>
     <row r="11">
@@ -784,7 +732,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.4298780487804878</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -809,88 +757,39 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>P-Value</t>
+          <t>AIIMS Positive</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Correlation with RAMJA</t>
+          <t>AIIMS Negative</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RAMJA</t>
+          <t>RAMJA Positive</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Correlated</t>
-        </is>
+        <v>25</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Abdominal pain</t>
+          <t>RAMJA Negative</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6261</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Not correlated</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>BurningMicturition</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1768</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Not correlated</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Urinating often</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0345</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Correlated</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Vaginal irritation</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.469</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Not correlated</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/1matrices.xlsx
+++ b/1matrices.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConfusionMatrix" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scores" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ramja positive with symptoms" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scores with symptoms" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -642,7 +643,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.7321428571428571</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +653,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.625</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="4">
@@ -662,7 +663,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8723404255319149</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="5">
@@ -672,7 +673,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.578125</v>
       </c>
     </row>
     <row r="6">
@@ -682,7 +683,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.625</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="7">
@@ -692,7 +693,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7042253521126761</v>
+        <v>0.7115384615384616</v>
       </c>
     </row>
     <row r="8">
@@ -702,7 +703,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.578125</v>
       </c>
     </row>
     <row r="9">
@@ -712,7 +713,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7321428571428571</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="10">
@@ -722,7 +723,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.895833333333335</v>
+        <v>2.466666666666667</v>
       </c>
     </row>
     <row r="11">
@@ -732,7 +733,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4298780487804878</v>
+        <v>0.1199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -773,10 +774,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -786,10 +787,136 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Scores</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.735632183908046</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Sensitivity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Specificity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7323943661971831</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3870967741935484</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>F1 Score</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5106382978723403</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>PPV</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3870967741935484</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>NPV</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>PLR</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.802631578947369</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>NLR</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3413461538461539</v>
       </c>
     </row>
   </sheetData>
